--- a/back/public/dealer/files/salesorder/excel/salesorder_126.xlsx
+++ b/back/public/dealer/files/salesorder/excel/salesorder_126.xlsx
@@ -80,7 +80,7 @@
     <t>UNIT PRICE</t>
   </si>
   <si>
-    <t>PPN - 11%</t>
+    <t>PPN%</t>
   </si>
   <si>
     <t>UNIT SELL PRICE IDR</t>
@@ -116,7 +116,7 @@
     <t>SALES PERSONNEL</t>
   </si>
   <si>
-    <t>superadminnn</t>
+    <t>alfredo dagonza</t>
   </si>
 </sst>
 </file>
@@ -919,13 +919,13 @@
         <v>30000</v>
       </c>
       <c r="G16" s="10">
-        <v>3300</v>
+        <v>100</v>
       </c>
       <c r="H16" s="10">
-        <v>33300</v>
+        <v>60000</v>
       </c>
       <c r="I16" s="10">
-        <v>70929000</v>
+        <v>127800000</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -948,13 +948,13 @@
         <v>30000</v>
       </c>
       <c r="G17" s="10">
-        <v>3300</v>
+        <v>100</v>
       </c>
       <c r="H17" s="10">
-        <v>33300</v>
+        <v>60000</v>
       </c>
       <c r="I17" s="10">
-        <v>5354307</v>
+        <v>9647400</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -977,13 +977,13 @@
         <v>30000</v>
       </c>
       <c r="G18" s="10">
-        <v>3300</v>
+        <v>100</v>
       </c>
       <c r="H18" s="10">
-        <v>33300</v>
+        <v>60000</v>
       </c>
       <c r="I18" s="10">
-        <v>286513200</v>
+        <v>516240000</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -998,7 +998,7 @@
       <c r="G19" s="11"/>
       <c r="H19" s="11"/>
       <c r="I19" s="12">
-        <v>362796507</v>
+        <v>653687400</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
